--- a/improved_model_performance_summary.xlsx
+++ b/improved_model_performance_summary.xlsx
@@ -517,16 +517,16 @@
         <v>58</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.012448</v>
+        <v>0.012158</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01472</v>
+        <v>0.014449</v>
       </c>
       <c r="J2" t="n">
-        <v>0.032</v>
+        <v>0.0581</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -561,16 +561,16 @@
         <v>58</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.13</v>
       </c>
       <c r="H3" t="n">
-        <v>0.012356</v>
+        <v>0.011177</v>
       </c>
       <c r="I3" t="n">
-        <v>0.016907</v>
+        <v>0.014479</v>
       </c>
       <c r="J3" t="n">
-        <v>0.28</v>
+        <v>0.3373</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -605,16 +605,16 @@
         <v>58</v>
       </c>
       <c r="G4" t="n">
-        <v>2.76</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00692</v>
+        <v>0.005323</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00864</v>
+        <v>0.006946</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0379</v>
+        <v>0.0408</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>

--- a/improved_model_performance_summary.xlsx
+++ b/improved_model_performance_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,11 +486,6 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Model_Type</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>Quality</t>
         </is>
       </c>
@@ -508,34 +503,29 @@
         <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="E2" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="H2" t="n">
-        <v>0.012158</v>
+        <v>0.012321</v>
       </c>
       <c r="I2" t="n">
-        <v>0.014449</v>
+        <v>0.013938</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0581</v>
+        <v>0.0328</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Одиночная</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Хорошая</t>
+          <t>Отличная</t>
         </is>
       </c>
     </row>
@@ -552,34 +542,29 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.011177</v>
+        <v>0.010689</v>
       </c>
       <c r="I3" t="n">
-        <v>0.014479</v>
+        <v>0.013907</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3373</v>
+        <v>0.2913</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Одиночная</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Хорошая</t>
+          <t>Отличная</t>
         </is>
       </c>
     </row>
@@ -596,34 +581,29 @@
         <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="E4" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F4" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005323</v>
+        <v>0.005717</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006946</v>
+        <v>0.007282</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0408</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Одиночная</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Хорошая</t>
+          <t>Отличная</t>
         </is>
       </c>
     </row>
